--- a/data/trans_camb/BARTHEL_R3-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R3-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.238476413875615</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.093800671301314</v>
+        <v>6.093800671301311</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>14.28058845872678</v>
@@ -655,7 +655,7 @@
         <v>15.19111826403721</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>22.95280657309325</v>
+        <v>22.95280657309324</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>6.663350322742975</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.87341893427051</v>
+        <v>-10.9161260780301</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.336563465031364</v>
+        <v>-6.914190584820719</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.726521925308424</v>
+        <v>-1.863311617038886</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.246746841818791</v>
+        <v>4.696935182652576</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.881831211612605</v>
+        <v>4.792136330905074</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>15.39805493300785</v>
+        <v>14.53268760310491</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1520837415435042</v>
+        <v>0.3490116140820764</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.064343338142778</v>
+        <v>2.143139221986242</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>9.803797040835672</v>
+        <v>9.107365897208608</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.677798706617085</v>
+        <v>6.014739406164775</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.30212783353577</v>
+        <v>10.94320525737724</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.7543896574187</v>
+        <v>14.39749052246501</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.29483625776266</v>
+        <v>23.60640397633226</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>25.39819079685512</v>
+        <v>24.66114286809909</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>30.80571102162376</v>
+        <v>30.51991145451738</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.09241611553396</v>
+        <v>13.90521217874715</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.15591181666204</v>
+        <v>15.60240552534731</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>21.47348959931023</v>
+        <v>20.7175971226959</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1444241544864733</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3931656389615636</v>
+        <v>0.3931656389615635</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.8338587852430011</v>
@@ -760,7 +760,7 @@
         <v>0.8870255913293238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.340238846758527</v>
+        <v>1.340238846758526</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4058358937772541</v>
@@ -769,7 +769,7 @@
         <v>0.5767900298967485</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.9225167531697077</v>
+        <v>0.9225167531697074</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5780016793957282</v>
+        <v>-0.5473662004871664</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3432878126037486</v>
+        <v>-0.3270800723530094</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.126553342137247</v>
+        <v>-0.09199924838793555</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1653345677351327</v>
+        <v>0.2112182015066912</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2387311922839583</v>
+        <v>0.1923862815269423</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6728003756137042</v>
+        <v>0.6353238706994224</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0126621052459091</v>
+        <v>0.01486590369578372</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.09111934708891453</v>
+        <v>0.08333869000333108</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4842037768979949</v>
+        <v>0.4267769228064571</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4981003467609993</v>
+        <v>0.5767803208974219</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.017520217953215</v>
+        <v>1.131784837277587</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.392036551266044</v>
+        <v>1.365141030477232</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.852980352184084</v>
+        <v>1.920046824544486</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.964523667703352</v>
+        <v>1.894521652449561</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.588223800700756</v>
+        <v>2.54959271829122</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.008587480211367</v>
+        <v>1.05405372092695</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.183391361641243</v>
+        <v>1.183735511354784</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.728537014007775</v>
+        <v>1.585795631826667</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>5.168244766537194</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8.9910741471774</v>
+        <v>8.991074147177395</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.249483601626244</v>
+        <v>0.6400090420033545</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.082115134303428</v>
+        <v>-4.851521816742591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.614418722301529</v>
+        <v>-4.114975810682663</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.071917416506309</v>
+        <v>4.829540984999808</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.918173536552357</v>
+        <v>-1.970802812588936</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.512550550165105</v>
+        <v>4.321130798509074</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.611470008210582</v>
+        <v>5.371670665979633</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.185957565998979</v>
+        <v>-1.391699894504082</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.933115898996833</v>
+        <v>2.570341594490881</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.84977888415958</v>
+        <v>19.26345491636574</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.5486277914199</v>
+        <v>10.85950203468685</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.63590351190406</v>
+        <v>11.14903109207706</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.91671513072071</v>
+        <v>23.34108561989167</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.95375249173054</v>
+        <v>15.36661008649381</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>20.17748867913734</v>
+        <v>20.66050676943056</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.80403810948591</v>
+        <v>18.86639883328994</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.46334629527624</v>
+        <v>11.50463034797617</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>14.71920991456022</v>
+        <v>14.20270445893705</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.2640133657939838</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4592978573826403</v>
+        <v>0.45929785738264</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04969439983570396</v>
+        <v>-0.002465511047898687</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2547899146285583</v>
+        <v>-0.2551264673992201</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1463361806854084</v>
+        <v>-0.1999612833773791</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1437002371924606</v>
+        <v>0.165073086024379</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1092512219722713</v>
+        <v>-0.07158679254115261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1509315036613955</v>
+        <v>0.1467036861468942</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2377181699581765</v>
+        <v>0.2331979225565862</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05677074396949233</v>
+        <v>-0.05759219389557912</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1181883191890245</v>
+        <v>0.1060010349346172</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.65364565873985</v>
+        <v>1.604339274439704</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9894842924345567</v>
+        <v>1.044364443512633</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.040264578247797</v>
+        <v>1.057164027394288</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.247830025701509</v>
+        <v>1.311970999220532</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8575680436164465</v>
+        <v>0.84544096613389</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.163616870560737</v>
+        <v>1.176797458295965</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.152681053616635</v>
+        <v>1.152458736600275</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6904915116244418</v>
+        <v>0.7360721956642748</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9124173806879232</v>
+        <v>0.8767600080686025</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>13.56311393625263</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>17.15078267511872</v>
+        <v>17.15078267511871</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>10.66297214495395</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5762767920921645</v>
+        <v>-1.558510271898789</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.045250652637947</v>
+        <v>-2.446779270318558</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.830046943504597</v>
+        <v>4.831190109006534</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.412260092196198</v>
+        <v>-0.3736110062378108</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.888506293007398</v>
+        <v>2.204102625743155</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>8.066316185316309</v>
+        <v>8.576808750446045</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.005538684639717</v>
+        <v>2.835442458379559</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.076093766485491</v>
+        <v>3.046859662782211</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.856884382843592</v>
+        <v>8.270594530379945</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.12315321717229</v>
+        <v>20.86919374954553</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.9880967899535</v>
+        <v>16.48047603248242</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.60490295307397</v>
+        <v>20.33528508744683</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.84901679479279</v>
+        <v>21.35597232018655</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>24.13829913453883</v>
+        <v>23.99416054928129</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>26.43283055254146</v>
+        <v>27.06779448503647</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.63532085686094</v>
+        <v>17.82886063496555</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.20841984580492</v>
+        <v>17.911443017782</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>20.8362683983303</v>
+        <v>20.66249365235061</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.7199423349297875</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9103790311747426</v>
+        <v>0.9103790311747424</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6946176636115112</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1015392540459381</v>
+        <v>-0.1352076441817871</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1648280232537514</v>
+        <v>-0.2119397113578566</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.220037693357129</v>
+        <v>0.2421968137353649</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.04719467822651995</v>
+        <v>-0.02833530087309899</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05723745163483404</v>
+        <v>0.08519054470884402</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3092145184449394</v>
+        <v>0.3448953029630599</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2139229181192546</v>
+        <v>0.1393918927338316</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1490145313398092</v>
+        <v>0.1686738934548198</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4567472493473007</v>
+        <v>0.4168779797746911</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.905972805067742</v>
+        <v>2.883592792043582</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.355501464216352</v>
+        <v>2.26149731407397</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.13557883268953</v>
+        <v>2.99805594094085</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.623493503000726</v>
+        <v>1.490478193735091</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.717352463404223</v>
+        <v>1.792755815992319</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.015646783365481</v>
+        <v>2.022835410058171</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.550925900575191</v>
+        <v>1.540638022509047</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.480457844502489</v>
+        <v>1.610385670309283</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.780851574633955</v>
+        <v>1.818560194784706</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>6.330985518640161</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>13.14386719013615</v>
+        <v>13.14386719013616</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.115288772029522</v>
+        <v>-1.499129347380896</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.912918973262312</v>
+        <v>-4.870985676088221</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.322586406576429</v>
+        <v>1.895161992386077</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.9431807053342799</v>
+        <v>-1.714416181389094</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.09428146761581944</v>
+        <v>0.06006520545455445</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.992018556921359</v>
+        <v>9.793920517070259</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1014402929667844</v>
+        <v>0.06243962238469548</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3886273442235091</v>
+        <v>0.5413569304802387</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.910869922468168</v>
+        <v>7.981363155225628</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.17452677188655</v>
+        <v>14.12694924216721</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.57639067181231</v>
+        <v>9.506789361893642</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.73211905463293</v>
+        <v>14.74081336357807</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.06040404906765</v>
+        <v>14.47152622809261</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>17.30458595142444</v>
+        <v>17.15412950663552</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.53971341088801</v>
+        <v>23.80383903533298</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.3465022546753</v>
+        <v>11.93729400392403</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.29968698231992</v>
+        <v>12.56075186957763</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>18.48359862760344</v>
+        <v>18.70160055599884</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.3633240997095227</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.7543033702252857</v>
+        <v>0.754303370225286</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1747151351867541</v>
+        <v>-0.1347009810245728</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3100030582349591</v>
+        <v>-0.3206210780925902</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1028636186184147</v>
+        <v>0.1067837201131448</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.04230763794154226</v>
+        <v>-0.06463221825374914</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.00757195090632001</v>
+        <v>-0.005780013637604994</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3399096211974719</v>
+        <v>0.3417921725416425</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.008203679265992896</v>
+        <v>-0.00473319203289512</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.01606247037694881</v>
+        <v>0.02237511495795406</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.371678987498407</v>
+        <v>0.374683979066488</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.768239773444729</v>
+        <v>1.70021187068322</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.244230914990279</v>
+        <v>1.095432744740189</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.947533951269</v>
+        <v>1.907681287883933</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9000920746624809</v>
+        <v>0.8448259476993824</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.042627150122126</v>
+        <v>1.060164532356793</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.380459109177397</v>
+        <v>1.443955784192431</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8583622237465667</v>
+        <v>0.7933573797364155</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8461030084073661</v>
+        <v>0.8917236565752192</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.341694514539563</v>
+        <v>1.315563382136566</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>3.68036387952694</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7.841305797771081</v>
+        <v>7.841305797771084</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>11.17296192319533</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7830134942242127</v>
+        <v>0.9987173779759291</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.27056138731972</v>
+        <v>-0.03215705722644215</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.990592052468658</v>
+        <v>4.562681753998998</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.945165780690931</v>
+        <v>6.156619409925795</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>6.042037834024744</v>
+        <v>5.948478486901065</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>12.87245882916342</v>
+        <v>12.70989525341957</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.333482331516797</v>
+        <v>5.413180207555103</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.302068449889554</v>
+        <v>4.214100924989685</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>10.14248731729068</v>
+        <v>9.892988631517206</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.905708556410572</v>
+        <v>10.15321796277393</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.62076926627187</v>
+        <v>8.222722084513158</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.62397506676048</v>
+        <v>11.79821036432097</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15.57236165504167</v>
+        <v>15.8573687944285</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.97125520744261</v>
+        <v>15.39763873040497</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>20.79632871934162</v>
+        <v>20.87099147776537</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.15606228649942</v>
+        <v>12.12477828987951</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.74453575864767</v>
+        <v>10.85886610591968</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>15.52668465307094</v>
+        <v>15.74330392855013</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2759503010558179</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5879339017542439</v>
+        <v>0.5879339017542441</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5483793470989101</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.05492493365374707</v>
+        <v>0.06606523762516914</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.01663588808842163</v>
+        <v>-0.005044832920556646</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2388692481123941</v>
+        <v>0.2943213623860949</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2583681286383998</v>
+        <v>0.2639587910503011</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2584462259488223</v>
+        <v>0.2559769805698113</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5484937078194266</v>
+        <v>0.5359799544452397</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2718726911341691</v>
+        <v>0.2730637479085937</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2325510986382802</v>
+        <v>0.2254978815584185</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5251486391831813</v>
+        <v>0.5077149405357707</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9111013992348731</v>
+        <v>0.9043633181933244</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6882560008946483</v>
+        <v>0.7227432746973735</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.054181202496527</v>
+        <v>1.099511540831124</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8485309928939203</v>
+        <v>0.8985549249959981</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8197262556049026</v>
+        <v>0.8576946714902771</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.158687452468895</v>
+        <v>1.190755292332053</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7464470352616054</v>
+        <v>0.763937044866169</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6857630693047087</v>
+        <v>0.6869637581996216</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.018628621450202</v>
+        <v>1.023186278713111</v>
       </c>
     </row>
     <row r="34">
